--- a/Average.xlsx
+++ b/Average.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brendan\eclipse-workspace\cab301-assign2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\UniRepo\CAB301-Assign2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -586,6 +586,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Brute Force Median Algorithm - Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -618,19 +648,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Average Brute Force Time</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -641,638 +668,638 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="31750">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Average!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>310</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>320</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>340</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>350</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>360</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>390</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>410</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>420</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>430</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>440</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>450</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>460</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>470</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>480</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>490</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>510</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>520</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>530</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>540</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>550</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>560</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>570</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>580</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>590</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>600</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>610</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>620</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>630</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>640</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>650</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>660</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>670</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>680</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>690</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>700</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>710</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>720</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>730</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>740</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>760</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>770</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>780</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>790</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>800</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>810</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>820</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>830</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>840</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>850</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>860</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>870</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>880</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>890</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>910</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>920</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>930</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>940</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>950</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>960</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>970</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>980</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>990</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Average!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0817E-6</c:v>
+                  <c:v>614.15890000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1839999999999997E-7</c:v>
+                  <c:v>336.26400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6242E-6</c:v>
+                  <c:v>737.58180000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3321000000000001E-6</c:v>
+                  <c:v>1151.2168999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3050999999999999E-6</c:v>
+                  <c:v>2093.5084999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4231000000000001E-6</c:v>
+                  <c:v>2960.4449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0876E-6</c:v>
+                  <c:v>3888.0396000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9458999999999999E-6</c:v>
+                  <c:v>6643.8657000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4455999999999992E-6</c:v>
+                  <c:v>8025.9349000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8146999999999994E-6</c:v>
+                  <c:v>8167.0060999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.12296E-5</c:v>
+                  <c:v>13137.5352</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5056500000000001E-5</c:v>
+                  <c:v>14441.4786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.73447E-5</c:v>
+                  <c:v>13738.8639</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9309499999999999E-5</c:v>
+                  <c:v>18016.5056</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.17439E-5</c:v>
+                  <c:v>18514.7114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4000300000000001E-5</c:v>
+                  <c:v>19782.9058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6034199999999999E-5</c:v>
+                  <c:v>22785.485199999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8507300000000001E-5</c:v>
+                  <c:v>26462.008999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0865899999999999E-5</c:v>
+                  <c:v>29735.0756</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3710600000000002E-5</c:v>
+                  <c:v>33788.792600000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6174899999999998E-5</c:v>
+                  <c:v>40842.800799999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.9907899999999998E-5</c:v>
+                  <c:v>43493.696400000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.21647E-5</c:v>
+                  <c:v>44987.683199999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5553400000000003E-5</c:v>
+                  <c:v>54683.2808</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7822599999999998E-5</c:v>
+                  <c:v>60908.240100000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1601499999999997E-5</c:v>
+                  <c:v>56669.872300000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3922000000000003E-5</c:v>
+                  <c:v>71456.438999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.83399E-5</c:v>
+                  <c:v>66130.431400000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.1146600000000002E-5</c:v>
+                  <c:v>70361.300900000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.46192E-5</c:v>
+                  <c:v>87125.603700000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.7398300000000001E-5</c:v>
+                  <c:v>87470.811700000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.0998499999999995E-5</c:v>
+                  <c:v>99346.356400000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.4958599999999998E-5</c:v>
+                  <c:v>104241.5301</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.7780699999999999E-5</c:v>
+                  <c:v>119287.71060000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.1067699999999996E-5</c:v>
+                  <c:v>119021.500699999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.5230799999999997E-5</c:v>
+                  <c:v>131655.1972</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.9236799999999999E-5</c:v>
+                  <c:v>140648.96350000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.2581099999999994E-5</c:v>
+                  <c:v>149724.22769999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5387099999999993E-5</c:v>
+                  <c:v>155751.2536</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.9557199999999996E-5</c:v>
+                  <c:v>151722.8959</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0279789999999999E-4</c:v>
+                  <c:v>156253.55559999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.083693E-4</c:v>
+                  <c:v>168502.28820000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.109655E-4</c:v>
+                  <c:v>205727.47609999901</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1464959999999999E-4</c:v>
+                  <c:v>195116.69349999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.203936E-4</c:v>
+                  <c:v>194656.34379999901</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.210924E-4</c:v>
+                  <c:v>208117.58259999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2618030000000001E-4</c:v>
+                  <c:v>235050.3916</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3028080000000001E-4</c:v>
+                  <c:v>219798.26579999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3296719999999999E-4</c:v>
+                  <c:v>252448.40030000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.368187E-4</c:v>
+                  <c:v>254316.7493</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4192259999999999E-4</c:v>
+                  <c:v>252640.36919999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4560239999999999E-4</c:v>
+                  <c:v>297811.41009999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5052039999999999E-4</c:v>
+                  <c:v>271304.19429999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.55093E-4</c:v>
+                  <c:v>303866.11410000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6083800000000001E-4</c:v>
+                  <c:v>290529.92310000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.6319570000000001E-4</c:v>
+                  <c:v>323489.84799999901</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.69684E-4</c:v>
+                  <c:v>379431.44540000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.743177E-4</c:v>
+                  <c:v>359771.56979999901</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7508239999999999E-4</c:v>
+                  <c:v>353007.05190000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.815586E-4</c:v>
+                  <c:v>377198.79259999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.8432410000000001E-4</c:v>
+                  <c:v>351356.12280000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8618660000000001E-4</c:v>
+                  <c:v>411621.83289999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.953279E-4</c:v>
+                  <c:v>360334.3787</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.9613899999999999E-4</c:v>
+                  <c:v>420293.33969999902</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0320639999999999E-4</c:v>
+                  <c:v>449044.80349999899</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0479490000000001E-4</c:v>
+                  <c:v>435848.80959999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.091265E-4</c:v>
+                  <c:v>465737.36599999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1441289999999999E-4</c:v>
+                  <c:v>505454.54920000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.1465540000000001E-4</c:v>
+                  <c:v>496468.583199999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.2356500000000001E-4</c:v>
+                  <c:v>489940.24939999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.308996E-4</c:v>
+                  <c:v>487165.9313</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.3394489999999999E-4</c:v>
+                  <c:v>590605.72949999897</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3664690000000001E-4</c:v>
+                  <c:v>501649.99589999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4257710000000001E-4</c:v>
+                  <c:v>540192.52889999899</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4674579999999998E-4</c:v>
+                  <c:v>573614.33829999901</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5494279999999997E-4</c:v>
+                  <c:v>556923.76409999898</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5580729999999998E-4</c:v>
+                  <c:v>569660.61230000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5994430000000001E-4</c:v>
+                  <c:v>565847.02469999995</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.6530310000000002E-4</c:v>
+                  <c:v>650313.81110000005</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.7043439999999998E-4</c:v>
+                  <c:v>626424.42290000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7578850000000002E-4</c:v>
+                  <c:v>692424.80579999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.8291269999999999E-4</c:v>
+                  <c:v>748090.82629999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8962479999999999E-4</c:v>
+                  <c:v>710015.47689999896</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.8856569999999998E-4</c:v>
+                  <c:v>773752.45900000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.9091449999999998E-4</c:v>
+                  <c:v>716579.71250000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.010318E-4</c:v>
+                  <c:v>691285.93740000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.033957E-4</c:v>
+                  <c:v>699579.01529999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.1417069999999998E-4</c:v>
+                  <c:v>833706.0895</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.133244E-4</c:v>
+                  <c:v>848700.82909999904</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.1777349999999999E-4</c:v>
+                  <c:v>897401.17759999901</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.2046249999999999E-4</c:v>
+                  <c:v>857178.25809999905</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2994619999999998E-4</c:v>
+                  <c:v>934213.27119999903</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.3382399999999998E-4</c:v>
+                  <c:v>954933.89039999899</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.3361950000000001E-4</c:v>
+                  <c:v>1020339.752</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.4815049999999999E-4</c:v>
+                  <c:v>949547.85809999995</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.5518959999999999E-4</c:v>
+                  <c:v>1060625.5253999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.6575319999999998E-4</c:v>
+                  <c:v>906079.67130000005</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.5627020000000002E-4</c:v>
+                  <c:v>910349.54319999996</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.6406850000000001E-4</c:v>
+                  <c:v>899050.66139999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.6836470000000001E-4</c:v>
+                  <c:v>909058.51800000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-90B5-43A0-B104-05472CC1B9D4}"/>
+              <c16:uniqueId val="{00000000-CA50-496D-8061-B9CF568028FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1284,18 +1311,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="616900528"/>
-        <c:axId val="616898232"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="616900528"/>
+        <c:axId val="439539216"/>
+        <c:axId val="439539544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="439539216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1317,7 +1357,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Length of array</a:t>
+                  <a:t>Array Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1360,8 +1400,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1388,15 +1428,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616898232"/>
+        <c:crossAx val="439539544"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="616898232"/>
+        <c:axId val="439539544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,11 +1474,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Average</a:t>
+                  <a:t>Execution</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> time taken (seconds)</a:t>
+                  <a:t> Time (ns)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -1482,8 +1519,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1507,9 +1550,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616900528"/>
+        <c:crossAx val="439539216"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1570,19 +1613,79 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Parition Median Algorithm -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Execution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1590,641 +1693,641 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="22225">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Average!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>310</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>320</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>340</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>350</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>360</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>390</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>410</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>420</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>430</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>440</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>450</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>460</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>470</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>480</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>490</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>510</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>520</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>530</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>540</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>550</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>560</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>570</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>580</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>590</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>600</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>610</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>620</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>630</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>640</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>650</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>660</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>670</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>680</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>690</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>700</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>710</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>720</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>730</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>740</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>750</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>760</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>770</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>780</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>790</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>800</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>810</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>820</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>830</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>840</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>850</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>860</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>870</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>880</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>890</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>910</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>920</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>930</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>940</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>950</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>960</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>970</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>980</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>990</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Average!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2.3224E-6</c:v>
+                  <c:v>74.752300000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3220000000000002E-7</c:v>
+                  <c:v>35.146900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4929999999999998E-7</c:v>
+                  <c:v>31.804200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1450000000000001E-7</c:v>
+                  <c:v>35.749699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1210000000000003E-7</c:v>
+                  <c:v>45.779000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9979999999999995E-7</c:v>
+                  <c:v>60.747999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0286E-6</c:v>
+                  <c:v>73.366600000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.639E-7</c:v>
+                  <c:v>85.594099999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1684999999999999E-6</c:v>
+                  <c:v>86.257800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0499999999999999E-6</c:v>
+                  <c:v>91.9495</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1283000000000001E-6</c:v>
+                  <c:v>102.97190000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2384000000000001E-6</c:v>
+                  <c:v>114.4174</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3135E-6</c:v>
+                  <c:v>118.935</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3901E-6</c:v>
+                  <c:v>116.40479999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5239999999999999E-6</c:v>
+                  <c:v>127.8498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6141999999999999E-6</c:v>
+                  <c:v>131.1918</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6925999999999999E-6</c:v>
+                  <c:v>144.05269999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7788E-6</c:v>
+                  <c:v>150.61850000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.888E-6</c:v>
+                  <c:v>165.10550000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9842E-6</c:v>
+                  <c:v>168.53890000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0686E-6</c:v>
+                  <c:v>179.25989999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1855999999999999E-6</c:v>
+                  <c:v>181.2182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2614999999999999E-6</c:v>
+                  <c:v>191.09639999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3676E-6</c:v>
+                  <c:v>200.64420000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4457000000000001E-6</c:v>
+                  <c:v>206.0051</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5353000000000001E-6</c:v>
+                  <c:v>216.9974</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6498E-6</c:v>
+                  <c:v>227.5993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7319000000000001E-6</c:v>
+                  <c:v>232.44820000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8306999999999999E-6</c:v>
+                  <c:v>236.36369999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9318E-6</c:v>
+                  <c:v>243.59180000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0170999999999999E-6</c:v>
+                  <c:v>250.88</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0947000000000002E-6</c:v>
+                  <c:v>271.23939999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2182E-6</c:v>
+                  <c:v>273.91989999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2892000000000002E-6</c:v>
+                  <c:v>278.91930000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3778000000000001E-6</c:v>
+                  <c:v>284.97300000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4861E-6</c:v>
+                  <c:v>291.41899999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.5671999999999999E-6</c:v>
+                  <c:v>303.37509999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6789E-6</c:v>
+                  <c:v>314.12689999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.7502000000000001E-6</c:v>
+                  <c:v>318.88630000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.8391999999999996E-6</c:v>
+                  <c:v>330.2099</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.9456E-6</c:v>
+                  <c:v>332.07709999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.0436999999999999E-6</c:v>
+                  <c:v>344.36520000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.1300000000000003E-6</c:v>
+                  <c:v>343.40129999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2312000000000002E-6</c:v>
+                  <c:v>353.73250000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.3467999999999996E-6</c:v>
+                  <c:v>356.38189999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.3842999999999997E-6</c:v>
+                  <c:v>383.21749999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.4560000000000002E-6</c:v>
+                  <c:v>377.49430000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.5974000000000002E-6</c:v>
+                  <c:v>389.5419</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.6685999999999997E-6</c:v>
+                  <c:v>395.3843</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.7574999999999998E-6</c:v>
+                  <c:v>399.45179999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.8724000000000001E-6</c:v>
+                  <c:v>405.95549999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.9432999999999997E-6</c:v>
+                  <c:v>427.6105</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.0583000000000003E-6</c:v>
+                  <c:v>424.68939999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.1475999999999996E-6</c:v>
+                  <c:v>438.21230000000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.2500999999999999E-6</c:v>
+                  <c:v>435.71210000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2982000000000004E-6</c:v>
+                  <c:v>438.42250000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4786000000000004E-6</c:v>
+                  <c:v>464.17329999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.5740000000000003E-6</c:v>
+                  <c:v>475.64830000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.5798999999999997E-6</c:v>
+                  <c:v>482.42380000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.7218E-6</c:v>
+                  <c:v>485.31569999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.8000999999999997E-6</c:v>
+                  <c:v>495.2244</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.8539E-6</c:v>
+                  <c:v>503.98849999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.9694E-6</c:v>
+                  <c:v>497.3331</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.0240999999999996E-6</c:v>
+                  <c:v>507.18060000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.1773000000000001E-6</c:v>
+                  <c:v>513.95820000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.2295999999999996E-6</c:v>
+                  <c:v>517.36059999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.3334999999999996E-6</c:v>
+                  <c:v>519.89089999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.4358000000000003E-6</c:v>
+                  <c:v>548.11149999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.5278000000000004E-6</c:v>
+                  <c:v>539.70820000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.6258000000000002E-6</c:v>
+                  <c:v>569.61580000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.7358E-6</c:v>
+                  <c:v>561.51329999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.8264000000000004E-6</c:v>
+                  <c:v>559.94709999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.8612999999999999E-6</c:v>
+                  <c:v>584.19219999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.0231999999999999E-6</c:v>
+                  <c:v>586.02959999999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.0717999999999998E-6</c:v>
+                  <c:v>589.28200000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.1722999999999999E-6</c:v>
+                  <c:v>612.95450000000005</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.2745999999999998E-6</c:v>
+                  <c:v>614.67150000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.3166000000000004E-6</c:v>
+                  <c:v>617.80309999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.4320000000000002E-6</c:v>
+                  <c:v>606.50900000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.5078999999999997E-6</c:v>
+                  <c:v>642.80150000000003</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.6302000000000002E-6</c:v>
+                  <c:v>647.68119999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.7271999999999995E-6</c:v>
+                  <c:v>641.44579999999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7996999999999992E-6</c:v>
+                  <c:v>683.6712</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.8946000000000006E-6</c:v>
+                  <c:v>661.17319999999995</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.9648000000000004E-6</c:v>
+                  <c:v>680.17759999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.0729000000000002E-6</c:v>
+                  <c:v>666.41330000000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.1929999999999993E-6</c:v>
+                  <c:v>685.92960000000005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.2956000000000007E-6</c:v>
+                  <c:v>682.91840000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.3590000000000008E-6</c:v>
+                  <c:v>698.24779999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.4493000000000006E-6</c:v>
+                  <c:v>699.03120000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.5501999999999999E-6</c:v>
+                  <c:v>722.82429999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.6609000000000004E-6</c:v>
+                  <c:v>724.3596</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.7213999999999992E-6</c:v>
+                  <c:v>718.54700000000003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.7528000000000003E-6</c:v>
+                  <c:v>732.97370000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.9500000000000007E-6</c:v>
+                  <c:v>749.26750000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.28365E-5</c:v>
+                  <c:v>740.35140000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.0676999999999996E-6</c:v>
+                  <c:v>770.86059999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.1673999999999997E-6</c:v>
+                  <c:v>788.14880000000005</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.2901999999999996E-6</c:v>
+                  <c:v>806.97329999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.3323000000000004E-6</c:v>
+                  <c:v>789.50409999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F320-40D0-A4A5-7C68A628E2ED}"/>
+              <c16:uniqueId val="{00000000-49FA-4122-82FD-2DE3946BA2D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2236,18 +2339,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="616900528"/>
-        <c:axId val="616898232"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="616900528"/>
+        <c:axId val="439539216"/>
+        <c:axId val="439539544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="439539216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2269,7 +2385,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Length of array</a:t>
+                  <a:t>Array Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2312,8 +2428,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2340,15 +2456,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616898232"/>
+        <c:crossAx val="439539544"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="616898232"/>
+        <c:axId val="439539544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,13 +2502,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Average time</a:t>
+                  <a:t>Execution Time (ns)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> taken (seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2434,8 +2542,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2459,9 +2573,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616900528"/>
+        <c:crossAx val="439539216"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2589,7 +2703,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2616,8 +2730,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2697,11 +2811,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2712,11 +2821,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2728,7 +2832,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2748,9 +2852,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2763,10 +2864,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2806,22 +2907,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2926,8 +3028,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3059,19 +3161,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3085,6 +3188,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3105,7 +3219,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3132,8 +3246,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3213,11 +3327,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3228,11 +3337,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3244,7 +3348,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3264,9 +3368,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3279,10 +3380,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3322,22 +3423,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3442,8 +3544,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3575,19 +3677,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3601,6 +3704,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3624,23 +3738,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582704</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B9A670-8C3E-427B-B6C1-092F8DE2875C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B860A6F-1AE4-4731-A5B9-3ECC5EDED697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,23 +3774,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>369798</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712710E7-3068-4BEE-9542-30462407EE06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEC227F-C355-45DE-9EFA-52E0AB7D4F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3998,15 +4112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4021,1102 +4131,1102 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>1.0817E-6</v>
+        <v>614.15890000000002</v>
       </c>
       <c r="C2">
-        <v>2.3224E-6</v>
+        <v>74.752300000000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="B3">
-        <v>8.1839999999999997E-7</v>
+        <v>336.26400000000001</v>
       </c>
       <c r="C3">
-        <v>4.3220000000000002E-7</v>
+        <v>35.146900000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="B4">
-        <v>3.6242E-6</v>
+        <v>737.58180000000004</v>
       </c>
       <c r="C4">
-        <v>4.4929999999999998E-7</v>
+        <v>31.804200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="B5">
-        <v>2.3321000000000001E-6</v>
+        <v>1151.2168999999999</v>
       </c>
       <c r="C5">
-        <v>5.1450000000000001E-7</v>
+        <v>35.749699999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="B6">
-        <v>3.3050999999999999E-6</v>
+        <v>2093.5084999999999</v>
       </c>
       <c r="C6">
-        <v>6.1210000000000003E-7</v>
+        <v>45.779000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="B7">
-        <v>4.4231000000000001E-6</v>
+        <v>2960.4449</v>
       </c>
       <c r="C7">
-        <v>6.9979999999999995E-7</v>
+        <v>60.747999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="B8">
-        <v>6.0876E-6</v>
+        <v>3888.0396000000001</v>
       </c>
       <c r="C8">
-        <v>1.0286E-6</v>
+        <v>73.366600000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="B9">
-        <v>6.9458999999999999E-6</v>
+        <v>6643.8657000000003</v>
       </c>
       <c r="C9">
-        <v>8.639E-7</v>
+        <v>85.594099999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="B10">
-        <v>8.4455999999999992E-6</v>
+        <v>8025.9349000000002</v>
       </c>
       <c r="C10">
-        <v>1.1684999999999999E-6</v>
+        <v>86.257800000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B11">
-        <v>9.8146999999999994E-6</v>
+        <v>8167.0060999999996</v>
       </c>
       <c r="C11">
-        <v>1.0499999999999999E-6</v>
+        <v>91.9495</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="B12">
-        <v>1.12296E-5</v>
+        <v>13137.5352</v>
       </c>
       <c r="C12">
-        <v>1.1283000000000001E-6</v>
+        <v>102.97190000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="B13">
-        <v>1.5056500000000001E-5</v>
+        <v>14441.4786</v>
       </c>
       <c r="C13">
-        <v>1.2384000000000001E-6</v>
+        <v>114.4174</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>130</v>
+        <v>1300</v>
       </c>
       <c r="B14">
-        <v>1.73447E-5</v>
+        <v>13738.8639</v>
       </c>
       <c r="C14">
-        <v>1.3135E-6</v>
+        <v>118.935</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>140</v>
+        <v>1400</v>
       </c>
       <c r="B15">
-        <v>1.9309499999999999E-5</v>
+        <v>18016.5056</v>
       </c>
       <c r="C15">
-        <v>1.3901E-6</v>
+        <v>116.40479999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="B16">
-        <v>2.17439E-5</v>
+        <v>18514.7114</v>
       </c>
       <c r="C16">
-        <v>1.5239999999999999E-6</v>
+        <v>127.8498</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>160</v>
+        <v>1600</v>
       </c>
       <c r="B17">
-        <v>2.4000300000000001E-5</v>
+        <v>19782.9058</v>
       </c>
       <c r="C17">
-        <v>1.6141999999999999E-6</v>
+        <v>131.1918</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>170</v>
+        <v>1700</v>
       </c>
       <c r="B18">
-        <v>2.6034199999999999E-5</v>
+        <v>22785.485199999999</v>
       </c>
       <c r="C18">
-        <v>1.6925999999999999E-6</v>
+        <v>144.05269999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="B19">
-        <v>2.8507300000000001E-5</v>
+        <v>26462.008999999998</v>
       </c>
       <c r="C19">
-        <v>1.7788E-6</v>
+        <v>150.61850000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>190</v>
+        <v>1900</v>
       </c>
       <c r="B20">
-        <v>3.0865899999999999E-5</v>
+        <v>29735.0756</v>
       </c>
       <c r="C20">
-        <v>1.888E-6</v>
+        <v>165.10550000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="B21">
-        <v>3.3710600000000002E-5</v>
+        <v>33788.792600000001</v>
       </c>
       <c r="C21">
-        <v>1.9842E-6</v>
+        <v>168.53890000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="B22">
-        <v>3.6174899999999998E-5</v>
+        <v>40842.800799999997</v>
       </c>
       <c r="C22">
-        <v>2.0686E-6</v>
+        <v>179.25989999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>220</v>
+        <v>2200</v>
       </c>
       <c r="B23">
-        <v>3.9907899999999998E-5</v>
+        <v>43493.696400000001</v>
       </c>
       <c r="C23">
-        <v>2.1855999999999999E-6</v>
+        <v>181.2182</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>230</v>
+        <v>2300</v>
       </c>
       <c r="B24">
-        <v>4.21647E-5</v>
+        <v>44987.683199999999</v>
       </c>
       <c r="C24">
-        <v>2.2614999999999999E-6</v>
+        <v>191.09639999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>240</v>
+        <v>2400</v>
       </c>
       <c r="B25">
-        <v>4.5553400000000003E-5</v>
+        <v>54683.2808</v>
       </c>
       <c r="C25">
-        <v>2.3676E-6</v>
+        <v>200.64420000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="B26">
-        <v>4.7822599999999998E-5</v>
+        <v>60908.240100000003</v>
       </c>
       <c r="C26">
-        <v>2.4457000000000001E-6</v>
+        <v>206.0051</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>260</v>
+        <v>2600</v>
       </c>
       <c r="B27">
-        <v>5.1601499999999997E-5</v>
+        <v>56669.872300000003</v>
       </c>
       <c r="C27">
-        <v>2.5353000000000001E-6</v>
+        <v>216.9974</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>270</v>
+        <v>2700</v>
       </c>
       <c r="B28">
-        <v>5.3922000000000003E-5</v>
+        <v>71456.438999999998</v>
       </c>
       <c r="C28">
-        <v>2.6498E-6</v>
+        <v>227.5993</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>280</v>
+        <v>2800</v>
       </c>
       <c r="B29">
-        <v>5.83399E-5</v>
+        <v>66130.431400000001</v>
       </c>
       <c r="C29">
-        <v>2.7319000000000001E-6</v>
+        <v>232.44820000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>290</v>
+        <v>2900</v>
       </c>
       <c r="B30">
-        <v>6.1146600000000002E-5</v>
+        <v>70361.300900000002</v>
       </c>
       <c r="C30">
-        <v>2.8306999999999999E-6</v>
+        <v>236.36369999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="B31">
-        <v>6.46192E-5</v>
+        <v>87125.603700000007</v>
       </c>
       <c r="C31">
-        <v>2.9318E-6</v>
+        <v>243.59180000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>310</v>
+        <v>3100</v>
       </c>
       <c r="B32">
-        <v>6.7398300000000001E-5</v>
+        <v>87470.811700000006</v>
       </c>
       <c r="C32">
-        <v>3.0170999999999999E-6</v>
+        <v>250.88</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>320</v>
+        <v>3200</v>
       </c>
       <c r="B33">
-        <v>7.0998499999999995E-5</v>
+        <v>99346.356400000004</v>
       </c>
       <c r="C33">
-        <v>3.0947000000000002E-6</v>
+        <v>271.23939999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>330</v>
+        <v>3300</v>
       </c>
       <c r="B34">
-        <v>7.4958599999999998E-5</v>
+        <v>104241.5301</v>
       </c>
       <c r="C34">
-        <v>3.2182E-6</v>
+        <v>273.91989999999998</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>340</v>
+        <v>3400</v>
       </c>
       <c r="B35">
-        <v>7.7780699999999999E-5</v>
+        <v>119287.71060000001</v>
       </c>
       <c r="C35">
-        <v>3.2892000000000002E-6</v>
+        <v>278.91930000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="B36">
-        <v>8.1067699999999996E-5</v>
+        <v>119021.500699999</v>
       </c>
       <c r="C36">
-        <v>3.3778000000000001E-6</v>
+        <v>284.97300000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="B37">
-        <v>8.5230799999999997E-5</v>
+        <v>131655.1972</v>
       </c>
       <c r="C37">
-        <v>3.4861E-6</v>
+        <v>291.41899999999998</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>370</v>
+        <v>3700</v>
       </c>
       <c r="B38">
-        <v>8.9236799999999999E-5</v>
+        <v>140648.96350000001</v>
       </c>
       <c r="C38">
-        <v>3.5671999999999999E-6</v>
+        <v>303.37509999999997</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>380</v>
+        <v>3800</v>
       </c>
       <c r="B39">
-        <v>9.2581099999999994E-5</v>
+        <v>149724.22769999999</v>
       </c>
       <c r="C39">
-        <v>3.6789E-6</v>
+        <v>314.12689999999998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>390</v>
+        <v>3900</v>
       </c>
       <c r="B40">
-        <v>9.5387099999999993E-5</v>
+        <v>155751.2536</v>
       </c>
       <c r="C40">
-        <v>3.7502000000000001E-6</v>
+        <v>318.88630000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="B41">
-        <v>9.9557199999999996E-5</v>
+        <v>151722.8959</v>
       </c>
       <c r="C41">
-        <v>3.8391999999999996E-6</v>
+        <v>330.2099</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>410</v>
+        <v>4100</v>
       </c>
       <c r="B42">
-        <v>1.0279789999999999E-4</v>
+        <v>156253.55559999999</v>
       </c>
       <c r="C42">
-        <v>3.9456E-6</v>
+        <v>332.07709999999997</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>420</v>
+        <v>4200</v>
       </c>
       <c r="B43">
-        <v>1.083693E-4</v>
+        <v>168502.28820000001</v>
       </c>
       <c r="C43">
-        <v>4.0436999999999999E-6</v>
+        <v>344.36520000000002</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>430</v>
+        <v>4300</v>
       </c>
       <c r="B44">
-        <v>1.109655E-4</v>
+        <v>205727.47609999901</v>
       </c>
       <c r="C44">
-        <v>4.1300000000000003E-6</v>
+        <v>343.40129999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>440</v>
+        <v>4400</v>
       </c>
       <c r="B45">
-        <v>1.1464959999999999E-4</v>
+        <v>195116.69349999999</v>
       </c>
       <c r="C45">
-        <v>4.2312000000000002E-6</v>
+        <v>353.73250000000002</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>450</v>
+        <v>4500</v>
       </c>
       <c r="B46">
-        <v>1.203936E-4</v>
+        <v>194656.34379999901</v>
       </c>
       <c r="C46">
-        <v>4.3467999999999996E-6</v>
+        <v>356.38189999999997</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>460</v>
+        <v>4600</v>
       </c>
       <c r="B47">
-        <v>1.210924E-4</v>
+        <v>208117.58259999999</v>
       </c>
       <c r="C47">
-        <v>4.3842999999999997E-6</v>
+        <v>383.21749999999997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>470</v>
+        <v>4700</v>
       </c>
       <c r="B48">
-        <v>1.2618030000000001E-4</v>
+        <v>235050.3916</v>
       </c>
       <c r="C48">
-        <v>4.4560000000000002E-6</v>
+        <v>377.49430000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>480</v>
+        <v>4800</v>
       </c>
       <c r="B49">
-        <v>1.3028080000000001E-4</v>
+        <v>219798.26579999999</v>
       </c>
       <c r="C49">
-        <v>4.5974000000000002E-6</v>
+        <v>389.5419</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>490</v>
+        <v>4900</v>
       </c>
       <c r="B50">
-        <v>1.3296719999999999E-4</v>
+        <v>252448.40030000001</v>
       </c>
       <c r="C50">
-        <v>4.6685999999999997E-6</v>
+        <v>395.3843</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B51">
-        <v>1.368187E-4</v>
+        <v>254316.7493</v>
       </c>
       <c r="C51">
-        <v>4.7574999999999998E-6</v>
+        <v>399.45179999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>510</v>
+        <v>5100</v>
       </c>
       <c r="B52">
-        <v>1.4192259999999999E-4</v>
+        <v>252640.36919999999</v>
       </c>
       <c r="C52">
-        <v>4.8724000000000001E-6</v>
+        <v>405.95549999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>520</v>
+        <v>5200</v>
       </c>
       <c r="B53">
-        <v>1.4560239999999999E-4</v>
+        <v>297811.41009999998</v>
       </c>
       <c r="C53">
-        <v>4.9432999999999997E-6</v>
+        <v>427.6105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>530</v>
+        <v>5300</v>
       </c>
       <c r="B54">
-        <v>1.5052039999999999E-4</v>
+        <v>271304.19429999997</v>
       </c>
       <c r="C54">
-        <v>5.0583000000000003E-6</v>
+        <v>424.68939999999998</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>540</v>
+        <v>5400</v>
       </c>
       <c r="B55">
-        <v>1.55093E-4</v>
+        <v>303866.11410000001</v>
       </c>
       <c r="C55">
-        <v>5.1475999999999996E-6</v>
+        <v>438.21230000000003</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>550</v>
+        <v>5500</v>
       </c>
       <c r="B56">
-        <v>1.6083800000000001E-4</v>
+        <v>290529.92310000001</v>
       </c>
       <c r="C56">
-        <v>5.2500999999999999E-6</v>
+        <v>435.71210000000002</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>560</v>
+        <v>5600</v>
       </c>
       <c r="B57">
-        <v>1.6319570000000001E-4</v>
+        <v>323489.84799999901</v>
       </c>
       <c r="C57">
-        <v>5.2982000000000004E-6</v>
+        <v>438.42250000000001</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>570</v>
+        <v>5700</v>
       </c>
       <c r="B58">
-        <v>1.69684E-4</v>
+        <v>379431.44540000003</v>
       </c>
       <c r="C58">
-        <v>5.4786000000000004E-6</v>
+        <v>464.17329999999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>580</v>
+        <v>5800</v>
       </c>
       <c r="B59">
-        <v>1.743177E-4</v>
+        <v>359771.56979999901</v>
       </c>
       <c r="C59">
-        <v>5.5740000000000003E-6</v>
+        <v>475.64830000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>590</v>
+        <v>5900</v>
       </c>
       <c r="B60">
-        <v>1.7508239999999999E-4</v>
+        <v>353007.05190000002</v>
       </c>
       <c r="C60">
-        <v>5.5798999999999997E-6</v>
+        <v>482.42380000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="B61">
-        <v>1.815586E-4</v>
+        <v>377198.79259999999</v>
       </c>
       <c r="C61">
-        <v>5.7218E-6</v>
+        <v>485.31569999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>610</v>
+        <v>6100</v>
       </c>
       <c r="B62">
-        <v>1.8432410000000001E-4</v>
+        <v>351356.12280000001</v>
       </c>
       <c r="C62">
-        <v>5.8000999999999997E-6</v>
+        <v>495.2244</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>620</v>
+        <v>6200</v>
       </c>
       <c r="B63">
-        <v>1.8618660000000001E-4</v>
+        <v>411621.83289999998</v>
       </c>
       <c r="C63">
-        <v>5.8539E-6</v>
+        <v>503.98849999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>630</v>
+        <v>6300</v>
       </c>
       <c r="B64">
-        <v>1.953279E-4</v>
+        <v>360334.3787</v>
       </c>
       <c r="C64">
-        <v>5.9694E-6</v>
+        <v>497.3331</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>640</v>
+        <v>6400</v>
       </c>
       <c r="B65">
-        <v>1.9613899999999999E-4</v>
+        <v>420293.33969999902</v>
       </c>
       <c r="C65">
-        <v>6.0240999999999996E-6</v>
+        <v>507.18060000000003</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>650</v>
+        <v>6500</v>
       </c>
       <c r="B66">
-        <v>2.0320639999999999E-4</v>
+        <v>449044.80349999899</v>
       </c>
       <c r="C66">
-        <v>6.1773000000000001E-6</v>
+        <v>513.95820000000003</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>660</v>
+        <v>6600</v>
       </c>
       <c r="B67">
-        <v>2.0479490000000001E-4</v>
+        <v>435848.80959999998</v>
       </c>
       <c r="C67">
-        <v>6.2295999999999996E-6</v>
+        <v>517.36059999999998</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>670</v>
+        <v>6700</v>
       </c>
       <c r="B68">
-        <v>2.091265E-4</v>
+        <v>465737.36599999998</v>
       </c>
       <c r="C68">
-        <v>6.3334999999999996E-6</v>
+        <v>519.89089999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>680</v>
+        <v>6800</v>
       </c>
       <c r="B69">
-        <v>2.1441289999999999E-4</v>
+        <v>505454.54920000001</v>
       </c>
       <c r="C69">
-        <v>6.4358000000000003E-6</v>
+        <v>548.11149999999998</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>690</v>
+        <v>6900</v>
       </c>
       <c r="B70">
-        <v>2.1465540000000001E-4</v>
+        <v>496468.583199999</v>
       </c>
       <c r="C70">
-        <v>6.5278000000000004E-6</v>
+        <v>539.70820000000003</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="B71">
-        <v>2.2356500000000001E-4</v>
+        <v>489940.24939999997</v>
       </c>
       <c r="C71">
-        <v>6.6258000000000002E-6</v>
+        <v>569.61580000000004</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>710</v>
+        <v>7100</v>
       </c>
       <c r="B72">
-        <v>2.308996E-4</v>
+        <v>487165.9313</v>
       </c>
       <c r="C72">
-        <v>6.7358E-6</v>
+        <v>561.51329999999996</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>720</v>
+        <v>7200</v>
       </c>
       <c r="B73">
-        <v>2.3394489999999999E-4</v>
+        <v>590605.72949999897</v>
       </c>
       <c r="C73">
-        <v>6.8264000000000004E-6</v>
+        <v>559.94709999999998</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>730</v>
+        <v>7300</v>
       </c>
       <c r="B74">
-        <v>2.3664690000000001E-4</v>
+        <v>501649.99589999998</v>
       </c>
       <c r="C74">
-        <v>6.8612999999999999E-6</v>
+        <v>584.19219999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>740</v>
+        <v>7400</v>
       </c>
       <c r="B75">
-        <v>2.4257710000000001E-4</v>
+        <v>540192.52889999899</v>
       </c>
       <c r="C75">
-        <v>7.0231999999999999E-6</v>
+        <v>586.02959999999996</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>750</v>
+        <v>7500</v>
       </c>
       <c r="B76">
-        <v>2.4674579999999998E-4</v>
+        <v>573614.33829999901</v>
       </c>
       <c r="C76">
-        <v>7.0717999999999998E-6</v>
+        <v>589.28200000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>760</v>
+        <v>7600</v>
       </c>
       <c r="B77">
-        <v>2.5494279999999997E-4</v>
+        <v>556923.76409999898</v>
       </c>
       <c r="C77">
-        <v>7.1722999999999999E-6</v>
+        <v>612.95450000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>770</v>
+        <v>7700</v>
       </c>
       <c r="B78">
-        <v>2.5580729999999998E-4</v>
+        <v>569660.61230000004</v>
       </c>
       <c r="C78">
-        <v>7.2745999999999998E-6</v>
+        <v>614.67150000000004</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>780</v>
+        <v>7800</v>
       </c>
       <c r="B79">
-        <v>2.5994430000000001E-4</v>
+        <v>565847.02469999995</v>
       </c>
       <c r="C79">
-        <v>7.3166000000000004E-6</v>
+        <v>617.80309999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>790</v>
+        <v>7900</v>
       </c>
       <c r="B80">
-        <v>2.6530310000000002E-4</v>
+        <v>650313.81110000005</v>
       </c>
       <c r="C80">
-        <v>7.4320000000000002E-6</v>
+        <v>606.50900000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="B81">
-        <v>2.7043439999999998E-4</v>
+        <v>626424.42290000001</v>
       </c>
       <c r="C81">
-        <v>7.5078999999999997E-6</v>
+        <v>642.80150000000003</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>810</v>
+        <v>8100</v>
       </c>
       <c r="B82">
-        <v>2.7578850000000002E-4</v>
+        <v>692424.80579999997</v>
       </c>
       <c r="C82">
-        <v>7.6302000000000002E-6</v>
+        <v>647.68119999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>820</v>
+        <v>8200</v>
       </c>
       <c r="B83">
-        <v>2.8291269999999999E-4</v>
+        <v>748090.82629999996</v>
       </c>
       <c r="C83">
-        <v>7.7271999999999995E-6</v>
+        <v>641.44579999999996</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>830</v>
+        <v>8300</v>
       </c>
       <c r="B84">
-        <v>2.8962479999999999E-4</v>
+        <v>710015.47689999896</v>
       </c>
       <c r="C84">
-        <v>7.7996999999999992E-6</v>
+        <v>683.6712</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>840</v>
+        <v>8400</v>
       </c>
       <c r="B85">
-        <v>2.8856569999999998E-4</v>
+        <v>773752.45900000003</v>
       </c>
       <c r="C85">
-        <v>7.8946000000000006E-6</v>
+        <v>661.17319999999995</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>850</v>
+        <v>8500</v>
       </c>
       <c r="B86">
-        <v>2.9091449999999998E-4</v>
+        <v>716579.71250000002</v>
       </c>
       <c r="C86">
-        <v>7.9648000000000004E-6</v>
+        <v>680.17759999999998</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>860</v>
+        <v>8600</v>
       </c>
       <c r="B87">
-        <v>3.010318E-4</v>
+        <v>691285.93740000005</v>
       </c>
       <c r="C87">
-        <v>8.0729000000000002E-6</v>
+        <v>666.41330000000005</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>870</v>
+        <v>8700</v>
       </c>
       <c r="B88">
-        <v>3.033957E-4</v>
+        <v>699579.01529999997</v>
       </c>
       <c r="C88">
-        <v>8.1929999999999993E-6</v>
+        <v>685.92960000000005</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>880</v>
+        <v>8800</v>
       </c>
       <c r="B89">
-        <v>3.1417069999999998E-4</v>
+        <v>833706.0895</v>
       </c>
       <c r="C89">
-        <v>8.2956000000000007E-6</v>
+        <v>682.91840000000002</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>890</v>
+        <v>8900</v>
       </c>
       <c r="B90">
-        <v>3.133244E-4</v>
+        <v>848700.82909999904</v>
       </c>
       <c r="C90">
-        <v>8.3590000000000008E-6</v>
+        <v>698.24779999999998</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>900</v>
+        <v>9000</v>
       </c>
       <c r="B91">
-        <v>3.1777349999999999E-4</v>
+        <v>897401.17759999901</v>
       </c>
       <c r="C91">
-        <v>8.4493000000000006E-6</v>
+        <v>699.03120000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>910</v>
+        <v>9100</v>
       </c>
       <c r="B92">
-        <v>3.2046249999999999E-4</v>
+        <v>857178.25809999905</v>
       </c>
       <c r="C92">
-        <v>8.5501999999999999E-6</v>
+        <v>722.82429999999999</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>920</v>
+        <v>9200</v>
       </c>
       <c r="B93">
-        <v>3.2994619999999998E-4</v>
+        <v>934213.27119999903</v>
       </c>
       <c r="C93">
-        <v>8.6609000000000004E-6</v>
+        <v>724.3596</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>930</v>
+        <v>9300</v>
       </c>
       <c r="B94">
-        <v>3.3382399999999998E-4</v>
+        <v>954933.89039999899</v>
       </c>
       <c r="C94">
-        <v>8.7213999999999992E-6</v>
+        <v>718.54700000000003</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>940</v>
+        <v>9400</v>
       </c>
       <c r="B95">
-        <v>3.3361950000000001E-4</v>
+        <v>1020339.752</v>
       </c>
       <c r="C95">
-        <v>8.7528000000000003E-6</v>
+        <v>732.97370000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>950</v>
+        <v>9500</v>
       </c>
       <c r="B96">
-        <v>3.4815049999999999E-4</v>
+        <v>949547.85809999995</v>
       </c>
       <c r="C96">
-        <v>8.9500000000000007E-6</v>
+        <v>749.26750000000004</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>960</v>
+        <v>9600</v>
       </c>
       <c r="B97">
-        <v>3.5518959999999999E-4</v>
+        <v>1060625.5253999999</v>
       </c>
       <c r="C97">
-        <v>1.28365E-5</v>
+        <v>740.35140000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>970</v>
+        <v>9700</v>
       </c>
       <c r="B98">
-        <v>3.6575319999999998E-4</v>
+        <v>906079.67130000005</v>
       </c>
       <c r="C98">
-        <v>9.0676999999999996E-6</v>
+        <v>770.86059999999998</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>980</v>
+        <v>9800</v>
       </c>
       <c r="B99">
-        <v>3.5627020000000002E-4</v>
+        <v>910349.54319999996</v>
       </c>
       <c r="C99">
-        <v>9.1673999999999997E-6</v>
+        <v>788.14880000000005</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>990</v>
+        <v>9900</v>
       </c>
       <c r="B100">
-        <v>3.6406850000000001E-4</v>
+        <v>899050.66139999998</v>
       </c>
       <c r="C100">
-        <v>9.2901999999999996E-6</v>
+        <v>806.97329999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B101">
-        <v>3.6836470000000001E-4</v>
+        <v>909058.51800000004</v>
       </c>
       <c r="C101">
-        <v>9.3323000000000004E-6</v>
+        <v>789.50409999999999</v>
       </c>
     </row>
   </sheetData>
